--- a/weekly-planner v2.xlsx
+++ b/weekly-planner v2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11011"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tianningli/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CCB762E-549D-1749-8907-4CDC98FB06A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{918A1334-26A5-FD4C-830C-92E3457C2E64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31460" yWindow="1260" windowWidth="25600" windowHeight="16620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -322,17 +322,17 @@
     <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -340,17 +340,17 @@
     <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1210,8 +1210,8 @@
   </sheetPr>
   <dimension ref="A1:AC90"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <selection activeCell="S23" sqref="S23"/>
+    <sheetView showGridLines="0" topLeftCell="A27" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63:I64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1301,7 +1301,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="7">
-        <v>44116</v>
+        <v>44130</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>10</v>
@@ -1362,57 +1362,57 @@
       <c r="AC4" s="1"/>
     </row>
     <row r="5" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="22">
+      <c r="A5" s="28">
         <f>DAY(E5)</f>
-        <v>12</v>
-      </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
+        <v>26</v>
+      </c>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
       <c r="D5" s="17"/>
-      <c r="E5" s="27">
+      <c r="E5" s="23">
         <f>D3</f>
-        <v>44116</v>
-      </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="26">
+        <v>44130</v>
+      </c>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="27">
         <f>DATE(YEAR($E$5),MONTH($E$5),1)</f>
         <v>44105</v>
       </c>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="W5" s="26">
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="27"/>
+      <c r="W5" s="27">
         <f>DATE(YEAR(O5+35),MONTH(O5+35),1)</f>
         <v>44136</v>
       </c>
-      <c r="X5" s="26"/>
-      <c r="Y5" s="26"/>
-      <c r="Z5" s="26"/>
-      <c r="AA5" s="26"/>
-      <c r="AB5" s="26"/>
-      <c r="AC5" s="26"/>
+      <c r="X5" s="27"/>
+      <c r="Y5" s="27"/>
+      <c r="Z5" s="27"/>
+      <c r="AA5" s="27"/>
+      <c r="AB5" s="27"/>
+      <c r="AC5" s="27"/>
     </row>
     <row r="6" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
       <c r="D6" s="17"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
@@ -1462,9 +1462,9 @@
       </c>
     </row>
     <row r="7" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="22"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
+      <c r="A7" s="28"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
       <c r="D7" s="17"/>
       <c r="E7" s="24" t="str">
         <f>INDEX({"Sunday","Monday","Tuesday","Wednesday","Thursday","Friday","Saturday"},WEEKDAY(E5))</f>
@@ -1537,9 +1537,9 @@
       </c>
     </row>
     <row r="8" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="23"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
       <c r="D8" s="18"/>
       <c r="E8" s="25"/>
       <c r="F8" s="25"/>
@@ -1616,12 +1616,12 @@
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
-      <c r="E9" s="28" t="str">
+      <c r="E9" s="26" t="str">
         <f>"W"&amp;TEXT(1+INT((E5-DATE(YEAR(E5+4-WEEKDAY(E5+6)),1,5)+
 WEEKDAY(DATE(YEAR(E5+4-WEEKDAY(E5+6)),1,3)))/7),"00")&amp;"-"&amp;WEEKDAY(E5,2)</f>
-        <v>W42-1</v>
-      </c>
-      <c r="F9" s="28"/>
+        <v>W44-1</v>
+      </c>
+      <c r="F9" s="26"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
@@ -1915,37 +1915,37 @@
       </c>
     </row>
     <row r="13" spans="1:29" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="20"/>
-      <c r="S13" s="20"/>
-      <c r="T13" s="20"/>
-      <c r="U13" s="20"/>
-      <c r="V13" s="20"/>
-      <c r="W13" s="20"/>
-      <c r="X13" s="20"/>
-      <c r="Y13" s="20"/>
-      <c r="Z13" s="20"/>
-      <c r="AA13" s="20"/>
-      <c r="AB13" s="20"/>
-      <c r="AC13" s="20"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="22"/>
+      <c r="U13" s="22"/>
+      <c r="V13" s="22"/>
+      <c r="W13" s="22"/>
+      <c r="X13" s="22"/>
+      <c r="Y13" s="22"/>
+      <c r="Z13" s="22"/>
+      <c r="AA13" s="22"/>
+      <c r="AB13" s="22"/>
+      <c r="AC13" s="22"/>
     </row>
     <row r="14" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="15" t="str">
@@ -2529,57 +2529,57 @@
       <c r="AC32" s="9"/>
     </row>
     <row r="34" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="22">
+      <c r="A34" s="28">
         <f>DAY(E34)</f>
-        <v>13</v>
-      </c>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
+        <v>27</v>
+      </c>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
       <c r="D34" s="17"/>
-      <c r="E34" s="27">
+      <c r="E34" s="23">
         <f>D3+1</f>
-        <v>44117</v>
-      </c>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="29"/>
-      <c r="K34" s="29"/>
-      <c r="L34" s="29"/>
-      <c r="M34" s="29"/>
-      <c r="N34" s="29"/>
-      <c r="O34" s="26">
+        <v>44131</v>
+      </c>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="27">
         <f>DATE(YEAR($E$5),MONTH($E$5),1)</f>
         <v>44105</v>
       </c>
-      <c r="P34" s="26"/>
-      <c r="Q34" s="26"/>
-      <c r="R34" s="26"/>
-      <c r="S34" s="26"/>
-      <c r="T34" s="26"/>
-      <c r="U34" s="26"/>
-      <c r="W34" s="26">
+      <c r="P34" s="27"/>
+      <c r="Q34" s="27"/>
+      <c r="R34" s="27"/>
+      <c r="S34" s="27"/>
+      <c r="T34" s="27"/>
+      <c r="U34" s="27"/>
+      <c r="W34" s="27">
         <f>DATE(YEAR(O34+35),MONTH(O34+35),1)</f>
         <v>44136</v>
       </c>
-      <c r="X34" s="26"/>
-      <c r="Y34" s="26"/>
-      <c r="Z34" s="26"/>
-      <c r="AA34" s="26"/>
-      <c r="AB34" s="26"/>
-      <c r="AC34" s="26"/>
+      <c r="X34" s="27"/>
+      <c r="Y34" s="27"/>
+      <c r="Z34" s="27"/>
+      <c r="AA34" s="27"/>
+      <c r="AB34" s="27"/>
+      <c r="AC34" s="27"/>
     </row>
     <row r="35" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="22"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
+      <c r="A35" s="28"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
       <c r="D35" s="17"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="27"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
       <c r="J35" s="11"/>
       <c r="K35" s="11"/>
       <c r="L35" s="11"/>
@@ -2629,9 +2629,9 @@
       </c>
     </row>
     <row r="36" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="22"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
+      <c r="A36" s="28"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
       <c r="D36" s="17"/>
       <c r="E36" s="24" t="str">
         <f>INDEX({"Sunday","Monday","Tuesday","Wednesday","Thursday","Friday","Saturday"},WEEKDAY(E34))</f>
@@ -2704,9 +2704,9 @@
       </c>
     </row>
     <row r="37" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="23"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
+      <c r="A37" s="29"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="29"/>
       <c r="D37" s="18"/>
       <c r="E37" s="25"/>
       <c r="F37" s="25"/>
@@ -2783,12 +2783,12 @@
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
       <c r="D38" s="13"/>
-      <c r="E38" s="28" t="str">
+      <c r="E38" s="26" t="str">
         <f>"W"&amp;TEXT(1+INT((E34-DATE(YEAR(E34+4-WEEKDAY(E34+6)),1,5)+
 WEEKDAY(DATE(YEAR(E34+4-WEEKDAY(E34+6)),1,3)))/7),"00")&amp;"-"&amp;WEEKDAY(E34,2)</f>
-        <v>W42-2</v>
-      </c>
-      <c r="F38" s="28"/>
+        <v>W44-2</v>
+      </c>
+      <c r="F38" s="26"/>
       <c r="H38" s="12"/>
       <c r="I38" s="12"/>
       <c r="J38" s="12"/>
@@ -3085,37 +3085,37 @@
       </c>
     </row>
     <row r="42" spans="1:29" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="20" t="s">
+      <c r="A42" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B42" s="20"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="20"/>
-      <c r="J42" s="20"/>
-      <c r="K42" s="20"/>
-      <c r="L42" s="20"/>
-      <c r="M42" s="20"/>
-      <c r="N42" s="20"/>
-      <c r="O42" s="20"/>
-      <c r="P42" s="20"/>
-      <c r="Q42" s="20"/>
-      <c r="R42" s="20"/>
-      <c r="S42" s="20"/>
-      <c r="T42" s="20"/>
-      <c r="U42" s="20"/>
-      <c r="V42" s="20"/>
-      <c r="W42" s="20"/>
-      <c r="X42" s="20"/>
-      <c r="Y42" s="20"/>
-      <c r="Z42" s="20"/>
-      <c r="AA42" s="20"/>
-      <c r="AB42" s="20"/>
-      <c r="AC42" s="20"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="22"/>
+      <c r="L42" s="22"/>
+      <c r="M42" s="22"/>
+      <c r="N42" s="22"/>
+      <c r="O42" s="22"/>
+      <c r="P42" s="22"/>
+      <c r="Q42" s="22"/>
+      <c r="R42" s="22"/>
+      <c r="S42" s="22"/>
+      <c r="T42" s="22"/>
+      <c r="U42" s="22"/>
+      <c r="V42" s="22"/>
+      <c r="W42" s="22"/>
+      <c r="X42" s="22"/>
+      <c r="Y42" s="22"/>
+      <c r="Z42" s="22"/>
+      <c r="AA42" s="22"/>
+      <c r="AB42" s="22"/>
+      <c r="AC42" s="22"/>
     </row>
     <row r="43" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="15" t="str">
@@ -3729,57 +3729,57 @@
       <c r="AC62" s="1"/>
     </row>
     <row r="63" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="22">
+      <c r="A63" s="28">
         <f>DAY(E63)</f>
-        <v>14</v>
-      </c>
-      <c r="B63" s="22"/>
-      <c r="C63" s="22"/>
+        <v>28</v>
+      </c>
+      <c r="B63" s="28"/>
+      <c r="C63" s="28"/>
       <c r="D63" s="17"/>
-      <c r="E63" s="27">
+      <c r="E63" s="23">
         <f>D3+2</f>
-        <v>44118</v>
-      </c>
-      <c r="F63" s="27"/>
-      <c r="G63" s="27"/>
-      <c r="H63" s="27"/>
-      <c r="I63" s="27"/>
-      <c r="J63" s="29"/>
-      <c r="K63" s="29"/>
-      <c r="L63" s="29"/>
-      <c r="M63" s="29"/>
-      <c r="N63" s="29"/>
-      <c r="O63" s="26">
+        <v>44132</v>
+      </c>
+      <c r="F63" s="23"/>
+      <c r="G63" s="23"/>
+      <c r="H63" s="23"/>
+      <c r="I63" s="23"/>
+      <c r="J63" s="20"/>
+      <c r="K63" s="20"/>
+      <c r="L63" s="20"/>
+      <c r="M63" s="20"/>
+      <c r="N63" s="20"/>
+      <c r="O63" s="27">
         <f>DATE(YEAR($E$5),MONTH($E$5),1)</f>
         <v>44105</v>
       </c>
-      <c r="P63" s="26"/>
-      <c r="Q63" s="26"/>
-      <c r="R63" s="26"/>
-      <c r="S63" s="26"/>
-      <c r="T63" s="26"/>
-      <c r="U63" s="26"/>
-      <c r="W63" s="26">
+      <c r="P63" s="27"/>
+      <c r="Q63" s="27"/>
+      <c r="R63" s="27"/>
+      <c r="S63" s="27"/>
+      <c r="T63" s="27"/>
+      <c r="U63" s="27"/>
+      <c r="W63" s="27">
         <f>DATE(YEAR(O63+35),MONTH(O63+35),1)</f>
         <v>44136</v>
       </c>
-      <c r="X63" s="26"/>
-      <c r="Y63" s="26"/>
-      <c r="Z63" s="26"/>
-      <c r="AA63" s="26"/>
-      <c r="AB63" s="26"/>
-      <c r="AC63" s="26"/>
+      <c r="X63" s="27"/>
+      <c r="Y63" s="27"/>
+      <c r="Z63" s="27"/>
+      <c r="AA63" s="27"/>
+      <c r="AB63" s="27"/>
+      <c r="AC63" s="27"/>
     </row>
     <row r="64" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="22"/>
-      <c r="B64" s="22"/>
-      <c r="C64" s="22"/>
+      <c r="A64" s="28"/>
+      <c r="B64" s="28"/>
+      <c r="C64" s="28"/>
       <c r="D64" s="17"/>
-      <c r="E64" s="27"/>
-      <c r="F64" s="27"/>
-      <c r="G64" s="27"/>
-      <c r="H64" s="27"/>
-      <c r="I64" s="27"/>
+      <c r="E64" s="23"/>
+      <c r="F64" s="23"/>
+      <c r="G64" s="23"/>
+      <c r="H64" s="23"/>
+      <c r="I64" s="23"/>
       <c r="J64" s="11"/>
       <c r="K64" s="11"/>
       <c r="L64" s="11"/>
@@ -3829,9 +3829,9 @@
       </c>
     </row>
     <row r="65" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="22"/>
-      <c r="B65" s="22"/>
-      <c r="C65" s="22"/>
+      <c r="A65" s="28"/>
+      <c r="B65" s="28"/>
+      <c r="C65" s="28"/>
       <c r="D65" s="17"/>
       <c r="E65" s="24" t="str">
         <f>INDEX({"Sunday","Monday","Tuesday","Wednesday","Thursday","Friday","Saturday"},WEEKDAY(E63))</f>
@@ -3904,9 +3904,9 @@
       </c>
     </row>
     <row r="66" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="23"/>
-      <c r="B66" s="23"/>
-      <c r="C66" s="23"/>
+      <c r="A66" s="29"/>
+      <c r="B66" s="29"/>
+      <c r="C66" s="29"/>
       <c r="D66" s="18"/>
       <c r="E66" s="25"/>
       <c r="F66" s="25"/>
@@ -3983,12 +3983,12 @@
       <c r="B67" s="13"/>
       <c r="C67" s="13"/>
       <c r="D67" s="13"/>
-      <c r="E67" s="28" t="str">
+      <c r="E67" s="26" t="str">
         <f>"W"&amp;TEXT(1+INT((E63-DATE(YEAR(E63+4-WEEKDAY(E63+6)),1,5)+
 WEEKDAY(DATE(YEAR(E63+4-WEEKDAY(E63+6)),1,3)))/7),"00")&amp;"-"&amp;WEEKDAY(E63,2)</f>
-        <v>W42-3</v>
-      </c>
-      <c r="F67" s="28"/>
+        <v>W44-3</v>
+      </c>
+      <c r="F67" s="26"/>
       <c r="H67" s="12"/>
       <c r="I67" s="12"/>
       <c r="J67" s="12"/>
@@ -4282,37 +4282,37 @@
       </c>
     </row>
     <row r="71" spans="1:29" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="20" t="s">
+      <c r="A71" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B71" s="20"/>
-      <c r="C71" s="20"/>
-      <c r="D71" s="20"/>
-      <c r="E71" s="20"/>
-      <c r="F71" s="20"/>
-      <c r="G71" s="20"/>
-      <c r="H71" s="20"/>
-      <c r="I71" s="20"/>
-      <c r="J71" s="20"/>
-      <c r="K71" s="20"/>
-      <c r="L71" s="20"/>
-      <c r="M71" s="20"/>
-      <c r="N71" s="20"/>
-      <c r="O71" s="20"/>
-      <c r="P71" s="20"/>
-      <c r="Q71" s="20"/>
-      <c r="R71" s="20"/>
-      <c r="S71" s="20"/>
-      <c r="T71" s="20"/>
-      <c r="U71" s="20"/>
-      <c r="V71" s="20"/>
-      <c r="W71" s="20"/>
-      <c r="X71" s="20"/>
-      <c r="Y71" s="20"/>
-      <c r="Z71" s="20"/>
-      <c r="AA71" s="20"/>
-      <c r="AB71" s="20"/>
-      <c r="AC71" s="20"/>
+      <c r="B71" s="22"/>
+      <c r="C71" s="22"/>
+      <c r="D71" s="22"/>
+      <c r="E71" s="22"/>
+      <c r="F71" s="22"/>
+      <c r="G71" s="22"/>
+      <c r="H71" s="22"/>
+      <c r="I71" s="22"/>
+      <c r="J71" s="22"/>
+      <c r="K71" s="22"/>
+      <c r="L71" s="22"/>
+      <c r="M71" s="22"/>
+      <c r="N71" s="22"/>
+      <c r="O71" s="22"/>
+      <c r="P71" s="22"/>
+      <c r="Q71" s="22"/>
+      <c r="R71" s="22"/>
+      <c r="S71" s="22"/>
+      <c r="T71" s="22"/>
+      <c r="U71" s="22"/>
+      <c r="V71" s="22"/>
+      <c r="W71" s="22"/>
+      <c r="X71" s="22"/>
+      <c r="Y71" s="22"/>
+      <c r="Z71" s="22"/>
+      <c r="AA71" s="22"/>
+      <c r="AB71" s="22"/>
+      <c r="AC71" s="22"/>
     </row>
     <row r="72" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="15" t="str">
@@ -4897,6 +4897,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A71:AC71"/>
+    <mergeCell ref="E34:I35"/>
+    <mergeCell ref="E36:I37"/>
+    <mergeCell ref="E63:I64"/>
+    <mergeCell ref="E65:I66"/>
+    <mergeCell ref="A63:C66"/>
+    <mergeCell ref="O63:U63"/>
+    <mergeCell ref="A34:C37"/>
+    <mergeCell ref="O34:U34"/>
+    <mergeCell ref="E38:F38"/>
     <mergeCell ref="V1:AC2"/>
     <mergeCell ref="A13:AC13"/>
     <mergeCell ref="E5:I6"/>
@@ -4906,20 +4916,10 @@
     <mergeCell ref="W34:AC34"/>
     <mergeCell ref="W63:AC63"/>
     <mergeCell ref="A42:AC42"/>
-    <mergeCell ref="A71:AC71"/>
-    <mergeCell ref="E34:I35"/>
-    <mergeCell ref="E36:I37"/>
-    <mergeCell ref="E63:I64"/>
-    <mergeCell ref="E65:I66"/>
-    <mergeCell ref="A63:C66"/>
-    <mergeCell ref="O63:U63"/>
     <mergeCell ref="A1:U2"/>
     <mergeCell ref="A5:C8"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="O5:U5"/>
-    <mergeCell ref="A34:C37"/>
-    <mergeCell ref="O34:U34"/>
-    <mergeCell ref="E38:F38"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="H9:M12 W7:AC11 O9:U12 J7:U8">
@@ -5001,8 +5001,8 @@
   </sheetPr>
   <dimension ref="A1:AC90"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A50" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <selection activeCell="S54" sqref="S54"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+      <selection activeCell="AE57" sqref="AE57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5093,7 +5093,7 @@
       </c>
       <c r="D3" s="7">
         <f>'Days1-3'!D3+3</f>
-        <v>44119</v>
+        <v>44133</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
@@ -5152,57 +5152,57 @@
       <c r="AC4" s="1"/>
     </row>
     <row r="5" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="22">
+      <c r="A5" s="28">
         <f>DAY(E5)</f>
-        <v>15</v>
-      </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
+        <v>29</v>
+      </c>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
       <c r="D5" s="17"/>
-      <c r="E5" s="27">
+      <c r="E5" s="23">
         <f>D3</f>
-        <v>44119</v>
-      </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="26">
+        <v>44133</v>
+      </c>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="27">
         <f>DATE(YEAR($E$5),MONTH($E$5),1)</f>
         <v>44105</v>
       </c>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="W5" s="26">
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="27"/>
+      <c r="W5" s="27">
         <f>DATE(YEAR(O5+35),MONTH(O5+35),1)</f>
         <v>44136</v>
       </c>
-      <c r="X5" s="26"/>
-      <c r="Y5" s="26"/>
-      <c r="Z5" s="26"/>
-      <c r="AA5" s="26"/>
-      <c r="AB5" s="26"/>
-      <c r="AC5" s="26"/>
+      <c r="X5" s="27"/>
+      <c r="Y5" s="27"/>
+      <c r="Z5" s="27"/>
+      <c r="AA5" s="27"/>
+      <c r="AB5" s="27"/>
+      <c r="AC5" s="27"/>
     </row>
     <row r="6" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
       <c r="D6" s="17"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
@@ -5252,9 +5252,9 @@
       </c>
     </row>
     <row r="7" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="22"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
+      <c r="A7" s="28"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
       <c r="D7" s="17"/>
       <c r="E7" s="24" t="str">
         <f>INDEX({"Sunday","Monday","Tuesday","Wednesday","Thursday","Friday","Saturday"},WEEKDAY(E5))</f>
@@ -5327,9 +5327,9 @@
       </c>
     </row>
     <row r="8" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="23"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
       <c r="D8" s="18"/>
       <c r="E8" s="25"/>
       <c r="F8" s="25"/>
@@ -5406,12 +5406,12 @@
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
-      <c r="E9" s="28" t="str">
+      <c r="E9" s="26" t="str">
         <f>"W"&amp;TEXT(1+INT((E5-DATE(YEAR(E5+4-WEEKDAY(E5+6)),1,5)+
 WEEKDAY(DATE(YEAR(E5+4-WEEKDAY(E5+6)),1,3)))/7),"00")&amp;"-"&amp;WEEKDAY(E5,2)</f>
-        <v>W42-4</v>
-      </c>
-      <c r="F9" s="28"/>
+        <v>W44-4</v>
+      </c>
+      <c r="F9" s="26"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
@@ -5705,37 +5705,37 @@
       </c>
     </row>
     <row r="13" spans="1:29" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="20"/>
-      <c r="S13" s="20"/>
-      <c r="T13" s="20"/>
-      <c r="U13" s="20"/>
-      <c r="V13" s="20"/>
-      <c r="W13" s="20"/>
-      <c r="X13" s="20"/>
-      <c r="Y13" s="20"/>
-      <c r="Z13" s="20"/>
-      <c r="AA13" s="20"/>
-      <c r="AB13" s="20"/>
-      <c r="AC13" s="20"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="22"/>
+      <c r="U13" s="22"/>
+      <c r="V13" s="22"/>
+      <c r="W13" s="22"/>
+      <c r="X13" s="22"/>
+      <c r="Y13" s="22"/>
+      <c r="Z13" s="22"/>
+      <c r="AA13" s="22"/>
+      <c r="AB13" s="22"/>
+      <c r="AC13" s="22"/>
     </row>
     <row r="14" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="15" t="str">
@@ -6319,57 +6319,57 @@
       <c r="AC32" s="9"/>
     </row>
     <row r="34" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="22">
+      <c r="A34" s="28">
         <f>DAY(E34)</f>
-        <v>16</v>
-      </c>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
+        <v>30</v>
+      </c>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
       <c r="D34" s="17"/>
-      <c r="E34" s="27">
+      <c r="E34" s="23">
         <f>D3+1</f>
-        <v>44120</v>
-      </c>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="29"/>
-      <c r="K34" s="29"/>
-      <c r="L34" s="29"/>
-      <c r="M34" s="29"/>
-      <c r="N34" s="29"/>
-      <c r="O34" s="26">
+        <v>44134</v>
+      </c>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="27">
         <f>DATE(YEAR($E$5),MONTH($E$5),1)</f>
         <v>44105</v>
       </c>
-      <c r="P34" s="26"/>
-      <c r="Q34" s="26"/>
-      <c r="R34" s="26"/>
-      <c r="S34" s="26"/>
-      <c r="T34" s="26"/>
-      <c r="U34" s="26"/>
-      <c r="W34" s="26">
+      <c r="P34" s="27"/>
+      <c r="Q34" s="27"/>
+      <c r="R34" s="27"/>
+      <c r="S34" s="27"/>
+      <c r="T34" s="27"/>
+      <c r="U34" s="27"/>
+      <c r="W34" s="27">
         <f>DATE(YEAR(O34+35),MONTH(O34+35),1)</f>
         <v>44136</v>
       </c>
-      <c r="X34" s="26"/>
-      <c r="Y34" s="26"/>
-      <c r="Z34" s="26"/>
-      <c r="AA34" s="26"/>
-      <c r="AB34" s="26"/>
-      <c r="AC34" s="26"/>
+      <c r="X34" s="27"/>
+      <c r="Y34" s="27"/>
+      <c r="Z34" s="27"/>
+      <c r="AA34" s="27"/>
+      <c r="AB34" s="27"/>
+      <c r="AC34" s="27"/>
     </row>
     <row r="35" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="22"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
+      <c r="A35" s="28"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
       <c r="D35" s="17"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="27"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
       <c r="J35" s="11"/>
       <c r="K35" s="11"/>
       <c r="L35" s="11"/>
@@ -6419,9 +6419,9 @@
       </c>
     </row>
     <row r="36" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="22"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
+      <c r="A36" s="28"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
       <c r="D36" s="17"/>
       <c r="E36" s="24" t="str">
         <f>INDEX({"Sunday","Monday","Tuesday","Wednesday","Thursday","Friday","Saturday"},WEEKDAY(E34))</f>
@@ -6494,9 +6494,9 @@
       </c>
     </row>
     <row r="37" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="23"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
+      <c r="A37" s="29"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="29"/>
       <c r="D37" s="18"/>
       <c r="E37" s="25"/>
       <c r="F37" s="25"/>
@@ -6573,12 +6573,12 @@
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
       <c r="D38" s="13"/>
-      <c r="E38" s="28" t="str">
+      <c r="E38" s="26" t="str">
         <f>"W"&amp;TEXT(1+INT((E34-DATE(YEAR(E34+4-WEEKDAY(E34+6)),1,5)+
 WEEKDAY(DATE(YEAR(E34+4-WEEKDAY(E34+6)),1,3)))/7),"00")&amp;"-"&amp;WEEKDAY(E34,2)</f>
-        <v>W42-5</v>
-      </c>
-      <c r="F38" s="28"/>
+        <v>W44-5</v>
+      </c>
+      <c r="F38" s="26"/>
       <c r="H38" s="12"/>
       <c r="I38" s="12"/>
       <c r="J38" s="12"/>
@@ -6875,37 +6875,37 @@
       </c>
     </row>
     <row r="42" spans="1:29" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="20" t="s">
+      <c r="A42" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B42" s="20"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="20"/>
-      <c r="J42" s="20"/>
-      <c r="K42" s="20"/>
-      <c r="L42" s="20"/>
-      <c r="M42" s="20"/>
-      <c r="N42" s="20"/>
-      <c r="O42" s="20"/>
-      <c r="P42" s="20"/>
-      <c r="Q42" s="20"/>
-      <c r="R42" s="20"/>
-      <c r="S42" s="20"/>
-      <c r="T42" s="20"/>
-      <c r="U42" s="20"/>
-      <c r="V42" s="20"/>
-      <c r="W42" s="20"/>
-      <c r="X42" s="20"/>
-      <c r="Y42" s="20"/>
-      <c r="Z42" s="20"/>
-      <c r="AA42" s="20"/>
-      <c r="AB42" s="20"/>
-      <c r="AC42" s="20"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="22"/>
+      <c r="L42" s="22"/>
+      <c r="M42" s="22"/>
+      <c r="N42" s="22"/>
+      <c r="O42" s="22"/>
+      <c r="P42" s="22"/>
+      <c r="Q42" s="22"/>
+      <c r="R42" s="22"/>
+      <c r="S42" s="22"/>
+      <c r="T42" s="22"/>
+      <c r="U42" s="22"/>
+      <c r="V42" s="22"/>
+      <c r="W42" s="22"/>
+      <c r="X42" s="22"/>
+      <c r="Y42" s="22"/>
+      <c r="Z42" s="22"/>
+      <c r="AA42" s="22"/>
+      <c r="AB42" s="22"/>
+      <c r="AC42" s="22"/>
     </row>
     <row r="43" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="15" t="str">
@@ -7519,57 +7519,57 @@
       <c r="AC62" s="1"/>
     </row>
     <row r="63" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="22" t="str">
-        <f>DAY(E63)&amp;"-"&amp;DAY(E63)+1</f>
-        <v>17-18</v>
-      </c>
-      <c r="B63" s="22"/>
-      <c r="C63" s="22"/>
-      <c r="D63" s="22"/>
-      <c r="E63" s="27">
+      <c r="A63" s="28" t="str">
+        <f>DAY(E63)&amp;"-"&amp;DAY(D3+3)</f>
+        <v>31-1</v>
+      </c>
+      <c r="B63" s="28"/>
+      <c r="C63" s="28"/>
+      <c r="D63" s="28"/>
+      <c r="E63" s="23">
         <f>D3+2</f>
-        <v>44121</v>
-      </c>
-      <c r="F63" s="27"/>
-      <c r="G63" s="27"/>
-      <c r="H63" s="27"/>
-      <c r="I63" s="27"/>
+        <v>44135</v>
+      </c>
+      <c r="F63" s="23"/>
+      <c r="G63" s="23"/>
+      <c r="H63" s="23"/>
+      <c r="I63" s="23"/>
       <c r="J63" s="19"/>
       <c r="K63" s="19"/>
       <c r="L63" s="19"/>
       <c r="M63" s="19"/>
       <c r="N63" s="1"/>
-      <c r="O63" s="26">
+      <c r="O63" s="27">
         <f>DATE(YEAR($E$5),MONTH($E$5),1)</f>
         <v>44105</v>
       </c>
-      <c r="P63" s="26"/>
-      <c r="Q63" s="26"/>
-      <c r="R63" s="26"/>
-      <c r="S63" s="26"/>
-      <c r="T63" s="26"/>
-      <c r="U63" s="26"/>
-      <c r="W63" s="26">
+      <c r="P63" s="27"/>
+      <c r="Q63" s="27"/>
+      <c r="R63" s="27"/>
+      <c r="S63" s="27"/>
+      <c r="T63" s="27"/>
+      <c r="U63" s="27"/>
+      <c r="W63" s="27">
         <f>DATE(YEAR(O63+35),MONTH(O63+35),1)</f>
         <v>44136</v>
       </c>
-      <c r="X63" s="26"/>
-      <c r="Y63" s="26"/>
-      <c r="Z63" s="26"/>
-      <c r="AA63" s="26"/>
-      <c r="AB63" s="26"/>
-      <c r="AC63" s="26"/>
+      <c r="X63" s="27"/>
+      <c r="Y63" s="27"/>
+      <c r="Z63" s="27"/>
+      <c r="AA63" s="27"/>
+      <c r="AB63" s="27"/>
+      <c r="AC63" s="27"/>
     </row>
     <row r="64" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="22"/>
-      <c r="B64" s="22"/>
-      <c r="C64" s="22"/>
-      <c r="D64" s="22"/>
-      <c r="E64" s="27"/>
-      <c r="F64" s="27"/>
-      <c r="G64" s="27"/>
-      <c r="H64" s="27"/>
-      <c r="I64" s="27"/>
+      <c r="A64" s="28"/>
+      <c r="B64" s="28"/>
+      <c r="C64" s="28"/>
+      <c r="D64" s="28"/>
+      <c r="E64" s="23"/>
+      <c r="F64" s="23"/>
+      <c r="G64" s="23"/>
+      <c r="H64" s="23"/>
+      <c r="I64" s="23"/>
       <c r="J64" s="19"/>
       <c r="K64" s="11"/>
       <c r="L64" s="11"/>
@@ -7619,10 +7619,10 @@
       </c>
     </row>
     <row r="65" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="22"/>
-      <c r="B65" s="22"/>
-      <c r="C65" s="22"/>
-      <c r="D65" s="22"/>
+      <c r="A65" s="28"/>
+      <c r="B65" s="28"/>
+      <c r="C65" s="28"/>
+      <c r="D65" s="28"/>
       <c r="E65" s="24" t="s">
         <v>11</v>
       </c>
@@ -7693,10 +7693,10 @@
       </c>
     </row>
     <row r="66" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="23"/>
-      <c r="B66" s="23"/>
-      <c r="C66" s="23"/>
-      <c r="D66" s="23"/>
+      <c r="A66" s="29"/>
+      <c r="B66" s="29"/>
+      <c r="C66" s="29"/>
+      <c r="D66" s="29"/>
       <c r="E66" s="25"/>
       <c r="F66" s="25"/>
       <c r="G66" s="25"/>
@@ -7772,12 +7772,12 @@
       <c r="B67" s="13"/>
       <c r="C67" s="13"/>
       <c r="D67" s="13"/>
-      <c r="E67" s="28" t="str">
+      <c r="E67" s="26" t="str">
         <f>"W"&amp;TEXT(1+INT((E63-DATE(YEAR(E63+4-WEEKDAY(E63+6)),1,5)+
 WEEKDAY(DATE(YEAR(E63+4-WEEKDAY(E63+6)),1,3)))/7),"00")&amp;"-"&amp;WEEKDAY(E63,2)</f>
-        <v>W42-6</v>
-      </c>
-      <c r="F67" s="28"/>
+        <v>W44-6</v>
+      </c>
+      <c r="F67" s="26"/>
       <c r="H67" s="12"/>
       <c r="I67" s="12"/>
       <c r="J67" s="12"/>
@@ -8071,37 +8071,37 @@
       </c>
     </row>
     <row r="71" spans="1:29" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="20" t="s">
+      <c r="A71" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B71" s="20"/>
-      <c r="C71" s="20"/>
-      <c r="D71" s="20"/>
-      <c r="E71" s="20"/>
-      <c r="F71" s="20"/>
-      <c r="G71" s="20"/>
-      <c r="H71" s="20"/>
-      <c r="I71" s="20"/>
-      <c r="J71" s="20"/>
-      <c r="K71" s="20"/>
-      <c r="L71" s="20"/>
-      <c r="M71" s="20"/>
-      <c r="N71" s="20"/>
-      <c r="O71" s="20"/>
-      <c r="P71" s="20"/>
-      <c r="Q71" s="20"/>
-      <c r="R71" s="20"/>
-      <c r="S71" s="20"/>
-      <c r="T71" s="20"/>
-      <c r="U71" s="20"/>
-      <c r="V71" s="20"/>
-      <c r="W71" s="20"/>
-      <c r="X71" s="20"/>
-      <c r="Y71" s="20"/>
-      <c r="Z71" s="20"/>
-      <c r="AA71" s="20"/>
-      <c r="AB71" s="20"/>
-      <c r="AC71" s="20"/>
+      <c r="B71" s="22"/>
+      <c r="C71" s="22"/>
+      <c r="D71" s="22"/>
+      <c r="E71" s="22"/>
+      <c r="F71" s="22"/>
+      <c r="G71" s="22"/>
+      <c r="H71" s="22"/>
+      <c r="I71" s="22"/>
+      <c r="J71" s="22"/>
+      <c r="K71" s="22"/>
+      <c r="L71" s="22"/>
+      <c r="M71" s="22"/>
+      <c r="N71" s="22"/>
+      <c r="O71" s="22"/>
+      <c r="P71" s="22"/>
+      <c r="Q71" s="22"/>
+      <c r="R71" s="22"/>
+      <c r="S71" s="22"/>
+      <c r="T71" s="22"/>
+      <c r="U71" s="22"/>
+      <c r="V71" s="22"/>
+      <c r="W71" s="22"/>
+      <c r="X71" s="22"/>
+      <c r="Y71" s="22"/>
+      <c r="Z71" s="22"/>
+      <c r="AA71" s="22"/>
+      <c r="AB71" s="22"/>
+      <c r="AC71" s="22"/>
     </row>
     <row r="72" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="15" t="str">
@@ -8686,11 +8686,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="A71:AC71"/>
-    <mergeCell ref="A63:D66"/>
-    <mergeCell ref="E63:I64"/>
-    <mergeCell ref="E65:I66"/>
+    <mergeCell ref="A1:U2"/>
+    <mergeCell ref="V1:AC2"/>
+    <mergeCell ref="A5:C8"/>
+    <mergeCell ref="O5:U5"/>
+    <mergeCell ref="W5:AC5"/>
+    <mergeCell ref="E5:I6"/>
+    <mergeCell ref="E7:I8"/>
     <mergeCell ref="E38:F38"/>
     <mergeCell ref="A42:AC42"/>
     <mergeCell ref="O63:U63"/>
@@ -8702,13 +8704,11 @@
     <mergeCell ref="W34:AC34"/>
     <mergeCell ref="E34:I35"/>
     <mergeCell ref="E36:I37"/>
-    <mergeCell ref="A1:U2"/>
-    <mergeCell ref="V1:AC2"/>
-    <mergeCell ref="A5:C8"/>
-    <mergeCell ref="O5:U5"/>
-    <mergeCell ref="W5:AC5"/>
-    <mergeCell ref="E5:I6"/>
-    <mergeCell ref="E7:I8"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="A71:AC71"/>
+    <mergeCell ref="A63:D66"/>
+    <mergeCell ref="E63:I64"/>
+    <mergeCell ref="E65:I66"/>
   </mergeCells>
   <conditionalFormatting sqref="H9:M12 W7:AC11 O7:U12 J7:N8">
     <cfRule type="cellIs" dxfId="16" priority="36" stopIfTrue="1" operator="equal">
